--- a/init_buyers_sellers_LNG.xlsx
+++ b/init_buyers_sellers_LNG.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berend\Dropbox\TU Delft\Scriptie\python\FinalModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\TU Delft\Scriptie\python\FinalModel\longrun\North Africa own region\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="6930" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="6930" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="buyers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>lb_price</t>
   </si>
@@ -220,9 +220,6 @@
     <t>['af','lng']</t>
   </si>
   <si>
-    <t xml:space="preserve">['eu','lng'] </t>
-  </si>
-  <si>
     <t>['me','lng']</t>
   </si>
   <si>
@@ -248,12 +245,18 @@
   </si>
   <si>
     <t>UP_reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['naf','lng'] </t>
+  </si>
+  <si>
+    <t>['eu','naf','lng']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -702,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1112,7 +1115,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1141,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1170,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1183,11 +1186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1524,7 +1527,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1680,7 +1683,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1706,7 +1709,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1732,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1758,7 +1761,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1784,7 +1787,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23">
         <v>2</v>
